--- a/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion06\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
-    <sheet name="DATOS" sheetId="1" state="hidden" r:id="rId2"/>
+    <sheet name="DATOS" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="237">
   <si>
     <t>Asignatura</t>
   </si>
@@ -217,66 +212,21 @@
     <t>f13b</t>
   </si>
   <si>
-    <t>M6A</t>
-  </si>
-  <si>
-    <t>M6B</t>
-  </si>
-  <si>
     <t>M7A</t>
   </si>
   <si>
-    <t>M8A</t>
-  </si>
-  <si>
-    <t>M9B</t>
-  </si>
-  <si>
-    <t>M9C</t>
-  </si>
-  <si>
-    <t>M10A</t>
-  </si>
-  <si>
     <t>M10B</t>
   </si>
   <si>
-    <t>M11A</t>
-  </si>
-  <si>
-    <t>M12A</t>
-  </si>
-  <si>
-    <t>M12B</t>
-  </si>
-  <si>
-    <t>M12C</t>
-  </si>
-  <si>
     <t>M12D</t>
   </si>
   <si>
-    <t>M13A</t>
-  </si>
-  <si>
-    <t>M13B</t>
-  </si>
-  <si>
-    <t>M14A</t>
-  </si>
-  <si>
-    <t>M15A</t>
-  </si>
-  <si>
     <t>M101A</t>
   </si>
   <si>
     <t>M101AP</t>
   </si>
   <si>
-    <t>M102AB</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fuente curso </t>
   </si>
   <si>
@@ -301,46 +251,16 @@
     <t>M1A</t>
   </si>
   <si>
-    <t>M1B</t>
-  </si>
-  <si>
     <t>M1C</t>
   </si>
   <si>
     <t>M1D</t>
   </si>
   <si>
-    <t>M2A</t>
-  </si>
-  <si>
-    <t>M2B</t>
-  </si>
-  <si>
     <t>M3A</t>
   </si>
   <si>
-    <t>M2C</t>
-  </si>
-  <si>
-    <t>M3B</t>
-  </si>
-  <si>
-    <t>M3B1</t>
-  </si>
-  <si>
-    <t>M4A</t>
-  </si>
-  <si>
     <t>M5A</t>
-  </si>
-  <si>
-    <t>M5B</t>
-  </si>
-  <si>
-    <t>M5C</t>
-  </si>
-  <si>
-    <t>M5D</t>
   </si>
   <si>
     <t>Fichas</t>
@@ -398,84 +318,6 @@
     <t>Banco de actividades</t>
   </si>
   <si>
-    <t>MA_08_06_C0</t>
-  </si>
-  <si>
-    <t>MA_08_06_C2</t>
-  </si>
-  <si>
-    <t>MA_08_06_C3</t>
-  </si>
-  <si>
-    <t>MA_08_06_C4</t>
-  </si>
-  <si>
-    <t>MA_08_06_C5</t>
-  </si>
-  <si>
-    <t>MA_08_06_C6</t>
-  </si>
-  <si>
-    <t>MA_08_06_C7</t>
-  </si>
-  <si>
-    <t>MA_08_06_C9</t>
-  </si>
-  <si>
-    <t>MA_08_06_C11</t>
-  </si>
-  <si>
-    <t>MA_08_06_C12</t>
-  </si>
-  <si>
-    <t>MA_08_06_C13</t>
-  </si>
-  <si>
-    <t>MA_08_06_C15</t>
-  </si>
-  <si>
-    <t>MA_08_06_C16</t>
-  </si>
-  <si>
-    <t>MA_08_06_C18</t>
-  </si>
-  <si>
-    <t>MA_08_06_C19</t>
-  </si>
-  <si>
-    <t>MA_08_06_C20</t>
-  </si>
-  <si>
-    <t>MA_08_06_C21</t>
-  </si>
-  <si>
-    <t>MA_08_06_C22</t>
-  </si>
-  <si>
-    <t>MA_08_06_C23</t>
-  </si>
-  <si>
-    <t>MA_08_06_C24</t>
-  </si>
-  <si>
-    <t>MA_08_06_C25</t>
-  </si>
-  <si>
-    <t>MA_08_06_C26</t>
-  </si>
-  <si>
-    <t>MA_08_06_C28</t>
-  </si>
-  <si>
-    <t>MA_08_06_C29</t>
-  </si>
-  <si>
-    <t>MA_08_06_C30</t>
-  </si>
-  <si>
-    <t>MA_08_06_C32</t>
-  </si>
-  <si>
     <t>Las ecuaciones e inecuaciones</t>
   </si>
   <si>
@@ -623,21 +465,6 @@
     <t xml:space="preserve">ACTIVIDAD </t>
   </si>
   <si>
-    <t>MODELACIÓN</t>
-  </si>
-  <si>
-    <t>RAZONAMIENTO</t>
-  </si>
-  <si>
-    <t>COMUNICACIÓN</t>
-  </si>
-  <si>
-    <t>EJERCITACIÓN</t>
-  </si>
-  <si>
-    <t>RESOLUCIÓN DE PROBLEMAS</t>
-  </si>
-  <si>
     <t>F4</t>
   </si>
   <si>
@@ -647,9 +474,6 @@
     <t>F10B</t>
   </si>
   <si>
-    <t>F7</t>
-  </si>
-  <si>
     <t>F6</t>
   </si>
   <si>
@@ -851,246 +675,6 @@
     <t>Secuencia de imágenes que muestra el analisis de gráfica de polinomios</t>
   </si>
   <si>
-    <t>ASIGNATURA</t>
-  </si>
-  <si>
-    <t>MATEMÁTICAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOCIALES </t>
-  </si>
-  <si>
-    <t>CIENCIAS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LENGUAJE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPOLOGÍA: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUEVO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">APROVECHADO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO MEDIA </t>
-  </si>
-  <si>
-    <t>SECUENCIA DE IMÁGENES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VIDEO </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIMACIÓN </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAPA CONCEPTUAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Si van en el cuaderno de estudio </t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR F</t>
-  </si>
-  <si>
-    <t>Total F</t>
-  </si>
-  <si>
-    <t>No van en el cuaderno de estudiio</t>
-  </si>
-  <si>
-    <t>Total M</t>
-  </si>
-  <si>
-    <t>F6B</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F13B</t>
-  </si>
-  <si>
-    <t>TIPO DE MOTOR M</t>
-  </si>
-  <si>
-    <t>MT_1_1</t>
-  </si>
-  <si>
-    <t>MT_2_1</t>
-  </si>
-  <si>
-    <t>MT_3_1</t>
-  </si>
-  <si>
-    <t>MT_3_2</t>
-  </si>
-  <si>
-    <t>MT_3_3</t>
-  </si>
-  <si>
-    <t>MT_4_1</t>
-  </si>
-  <si>
-    <t>MT_4_2</t>
-  </si>
-  <si>
-    <t>MT_5_1</t>
-  </si>
-  <si>
-    <t>MT_6_1</t>
-  </si>
-  <si>
-    <t>MT_6_2</t>
-  </si>
-  <si>
-    <t>MT_6_3</t>
-  </si>
-  <si>
-    <t>MT_9_1</t>
-  </si>
-  <si>
-    <t>MT_11_1</t>
-  </si>
-  <si>
-    <t>MT_12_1</t>
-  </si>
-  <si>
-    <t>MT_13_1</t>
-  </si>
-  <si>
-    <t>MT_14_1</t>
-  </si>
-  <si>
-    <t>MT_14_2</t>
-  </si>
-  <si>
-    <t>MT_16_1</t>
-  </si>
-  <si>
-    <t>MT_17_1</t>
-  </si>
-  <si>
-    <t>MT_19_1</t>
-  </si>
-  <si>
-    <t>MT_09_08_06</t>
-  </si>
-  <si>
-    <t>MT_09_08_08</t>
-  </si>
-  <si>
-    <t>MT_09_08_10</t>
-  </si>
-  <si>
-    <t>MT_09_12_03</t>
-  </si>
-  <si>
-    <t>MT_09_12_04</t>
-  </si>
-  <si>
-    <t>MT_10_09_04</t>
-  </si>
-  <si>
-    <t>MT_09_10_05a</t>
-  </si>
-  <si>
-    <t>MT_09_10_05b</t>
-  </si>
-  <si>
-    <t>MT_09_10_05d</t>
-  </si>
-  <si>
-    <t>MT_10_12_09</t>
-  </si>
-  <si>
-    <t>MT_09_01_03a</t>
-  </si>
-  <si>
-    <t>MT_10_01_03</t>
-  </si>
-  <si>
-    <t>MT_10_01_04</t>
-  </si>
-  <si>
-    <t>MT_10_02_09</t>
-  </si>
-  <si>
-    <t>MT_10_03_07</t>
-  </si>
-  <si>
-    <t>MT_10_03_10</t>
-  </si>
-  <si>
-    <t>MT_10_04_09</t>
-  </si>
-  <si>
-    <t>MT_10_04_10</t>
-  </si>
-  <si>
-    <t>MT_10_05_07</t>
-  </si>
-  <si>
-    <t>MT_10_05_08</t>
-  </si>
-  <si>
-    <t>MT_09_05_03</t>
-  </si>
-  <si>
-    <t>MT_09_05_04</t>
-  </si>
-  <si>
-    <t>MT_09_05_07</t>
-  </si>
-  <si>
-    <t>MT_09_05_09</t>
-  </si>
-  <si>
-    <t>MT_09_06_05a</t>
-  </si>
-  <si>
-    <t>MT_09_06_05b</t>
-  </si>
-  <si>
-    <t>MT_09_06_05c</t>
-  </si>
-  <si>
-    <t>MT_09_09_03</t>
-  </si>
-  <si>
-    <t>MT_09_07_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_01</t>
-  </si>
-  <si>
-    <t>MT_10_06_04</t>
-  </si>
-  <si>
-    <t>MT_10_06_05</t>
-  </si>
-  <si>
-    <t>MT_10_06_07</t>
-  </si>
-  <si>
-    <t>MT_10_06_08</t>
-  </si>
-  <si>
-    <t>MT_10_06_09</t>
-  </si>
-  <si>
     <t>DiapF1</t>
   </si>
   <si>
@@ -1143,6 +727,9 @@
   </si>
   <si>
     <t>RM_01_02_CO</t>
+  </si>
+  <si>
+    <t>MA_08_06_CO</t>
   </si>
 </sst>
 </file>
@@ -1642,15 +1229,36 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1691,27 +1299,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1774,7 +1361,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1809,7 +1396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2020,9 +1607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W9" sqref="W9"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2043,156 +1630,159 @@
     <col min="15" max="15" width="37.85546875" style="28" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" style="70" customWidth="1"/>
-    <col min="18" max="21" width="13.28515625" style="71" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="71" customWidth="1"/>
+    <col min="20" max="20" width="26" style="71" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" style="71" customWidth="1"/>
     <col min="22" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>109</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="72" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="80" t="s">
+      <c r="D1" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="80" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="72" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="84" t="s">
+      <c r="H1" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="L1" s="80" t="e">
+      <c r="K1" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="L1" s="87" t="e">
         <f>L1:N22Tipo de media</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="74" t="s">
-        <v>108</v>
-      </c>
-      <c r="P1" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="90" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="S1" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>87</v>
-      </c>
-      <c r="U1" s="90" t="s">
+      <c r="N1" s="93"/>
+      <c r="O1" s="72" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="72" t="s">
         <v>88</v>
       </c>
+      <c r="Q1" s="74" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="78" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="74" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="74" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:21" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="81"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="88"/>
       <c r="M2" s="29" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="91"/>
+        <v>75</v>
+      </c>
+      <c r="O2" s="82"/>
+      <c r="P2" s="73"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="75"/>
     </row>
     <row r="3" spans="1:21" s="41" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="E3" s="38"/>
       <c r="F3" s="38"/>
       <c r="G3" s="39" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="H3" s="38">
         <v>1</v>
       </c>
       <c r="I3" s="38" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="J3" s="38" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="K3" s="40" t="s">
         <v>19</v>
       </c>
       <c r="L3" s="43" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M3" s="40" t="s">
-        <v>355</v>
+        <v>218</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="47"/>
       <c r="P3" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q3" s="52">
         <v>6</v>
       </c>
       <c r="R3" s="53" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>370</v>
+        <v>233</v>
       </c>
       <c r="T3" s="54" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="U3" s="52" t="s">
-        <v>372</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:21" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2200,20 +1790,20 @@
         <v>14</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F4" s="38"/>
       <c r="G4" s="39" t="s">
-        <v>356</v>
+        <v>219</v>
       </c>
       <c r="H4" s="38">
         <v>2</v>
@@ -2222,34 +1812,36 @@
         <v>19</v>
       </c>
       <c r="J4" s="38" t="s">
-        <v>357</v>
-      </c>
-      <c r="K4" s="38"/>
+        <v>220</v>
+      </c>
+      <c r="K4" s="38" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="44" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M4" s="38"/>
       <c r="N4" s="40" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O4" s="47"/>
       <c r="P4" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="55">
         <v>6</v>
       </c>
       <c r="R4" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S4" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T4" s="58" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="U4" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2257,18 +1849,18 @@
         <v>14</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="4"/>
       <c r="G5" s="36" t="s">
-        <v>152</v>
+        <v>101</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
@@ -2277,38 +1869,38 @@
         <v>18</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="45" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="48" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q5" s="59">
         <v>6</v>
       </c>
       <c r="R5" s="60" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S5" s="61" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T5" s="62" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="U5" s="61" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -2316,18 +1908,18 @@
         <v>14</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E6" s="30"/>
       <c r="F6" s="31"/>
       <c r="G6" s="32" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="H6" s="33">
         <v>4</v>
@@ -2336,57 +1928,57 @@
         <v>19</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>175</v>
+        <v>124</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L6" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M6" s="6"/>
       <c r="N6" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O6" s="49" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="P6" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q6" s="63">
         <v>6</v>
       </c>
       <c r="R6" s="64" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S6" s="65" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T6" s="66" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="U6" s="65" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>125</v>
+      <c r="B7" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19"/>
       <c r="G7" s="20" t="s">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="H7" s="12">
         <v>5</v>
@@ -2395,57 +1987,57 @@
         <v>18</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="L7" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>205</v>
+        <v>149</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="50" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q7" s="55">
         <v>6</v>
       </c>
       <c r="R7" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S7" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T7" s="58" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="U7" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>126</v>
+      <c r="B8" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="19"/>
       <c r="G8" s="20" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="H8" s="12">
         <v>6</v>
@@ -2454,55 +2046,55 @@
         <v>19</v>
       </c>
       <c r="J8" s="22" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L8" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="50" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="P8" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="55" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R8" s="56" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="S8" s="57" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="T8" s="67" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="U8" s="57" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>127</v>
+      <c r="B9" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="19"/>
       <c r="G9" s="20" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -2511,55 +2103,55 @@
         <v>19</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L9" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="50" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q9" s="55" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R9" s="56" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="S9" s="57" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="T9" s="67" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="U9" s="57" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>128</v>
+      <c r="B10" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="19"/>
       <c r="G10" s="20" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="H10" s="33">
         <v>8</v>
@@ -2568,57 +2160,57 @@
         <v>19</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>179</v>
+        <v>128</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O10" s="50" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="P10" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="55">
         <v>6</v>
       </c>
       <c r="R10" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S10" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T10" s="58" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="U10" s="57" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>129</v>
+      <c r="B11" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
       <c r="G11" s="20" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="H11" s="12">
         <v>9</v>
@@ -2627,57 +2219,57 @@
         <v>19</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L11" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="O11" s="50" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="55">
         <v>6</v>
       </c>
       <c r="R11" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S11" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T11" s="58" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="U11" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>130</v>
+      <c r="B12" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
       <c r="G12" s="20" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="H12" s="12">
         <v>10</v>
@@ -2686,57 +2278,57 @@
         <v>19</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>181</v>
+        <v>130</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M12" s="6"/>
       <c r="N12" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O12" s="50" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="P12" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q12" s="55">
         <v>6</v>
       </c>
       <c r="R12" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S12" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T12" s="58" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="U12" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>132</v>
+      <c r="B13" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
       <c r="G13" s="20" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
@@ -2745,57 +2337,57 @@
         <v>19</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>183</v>
+        <v>132</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M13" s="6"/>
       <c r="N13" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O13" s="50" t="s">
-        <v>363</v>
+        <v>226</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="55">
         <v>6</v>
       </c>
       <c r="R13" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S13" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T13" s="58" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="U13" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>133</v>
+      <c r="B14" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
       <c r="G14" s="20" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="H14" s="33">
         <v>12</v>
@@ -2804,55 +2396,55 @@
         <v>19</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="50" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="P14" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q14" s="55" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R14" s="56" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="S14" s="57" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="T14" s="67" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="U14" s="57" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>131</v>
+      <c r="B15" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="19"/>
       <c r="G15" s="20" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="H15" s="4">
         <v>13</v>
@@ -2861,59 +2453,59 @@
         <v>19</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L15" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O15" s="50" t="s">
-        <v>364</v>
+        <v>227</v>
       </c>
       <c r="P15" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q15" s="55">
         <v>6</v>
       </c>
       <c r="R15" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S15" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T15" s="58" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="U15" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>134</v>
+      <c r="B16" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="20" t="s">
-        <v>358</v>
+        <v>221</v>
       </c>
       <c r="H16" s="33">
         <v>14</v>
@@ -2922,57 +2514,57 @@
         <v>19</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O16" s="50" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="P16" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="55">
         <v>6</v>
       </c>
       <c r="R16" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S16" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T16" s="58" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="U16" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>135</v>
+      <c r="B17" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="19"/>
       <c r="G17" s="20" t="s">
-        <v>162</v>
+        <v>111</v>
       </c>
       <c r="H17" s="4">
         <v>15</v>
@@ -2981,57 +2573,57 @@
         <v>18</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L17" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="N17" s="6"/>
       <c r="O17" s="50" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="55">
         <v>6</v>
       </c>
       <c r="R17" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S17" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T17" s="58" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="U17" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>136</v>
+      <c r="B18" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="H18" s="33">
         <v>16</v>
@@ -3040,57 +2632,57 @@
         <v>19</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M18" s="6"/>
       <c r="N18" s="6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="O18" s="50" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="P18" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="55">
         <v>6</v>
       </c>
       <c r="R18" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S18" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T18" s="58" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="U18" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>137</v>
+      <c r="B19" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="19"/>
       <c r="G19" s="20" t="s">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="H19" s="4">
         <v>17</v>
@@ -3099,57 +2691,57 @@
         <v>19</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="K19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L19" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M19" s="6"/>
       <c r="N19" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="O19" s="50" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q19" s="55">
         <v>6</v>
       </c>
       <c r="R19" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S19" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T19" s="58" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="U19" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="8" t="s">
-        <v>138</v>
+      <c r="B20" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
       <c r="G20" s="20" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="H20" s="33">
         <v>18</v>
@@ -3158,57 +2750,57 @@
         <v>18</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="N20" s="6"/>
       <c r="O20" s="50" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="P20" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="55">
         <v>6</v>
       </c>
       <c r="R20" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S20" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T20" s="58" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="U20" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>139</v>
+      <c r="B21" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="19"/>
       <c r="G21" s="20" t="s">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="H21" s="4">
         <v>19</v>
@@ -3217,57 +2809,57 @@
         <v>19</v>
       </c>
       <c r="J21" s="22" t="s">
-        <v>189</v>
+        <v>138</v>
       </c>
       <c r="K21" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L21" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M21" s="6"/>
       <c r="N21" s="6" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="O21" s="50" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q21" s="55">
         <v>6</v>
       </c>
       <c r="R21" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S21" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T21" s="58" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="U21" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>140</v>
+      <c r="B22" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
       <c r="G22" s="20" t="s">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="H22" s="33">
         <v>20</v>
@@ -3276,57 +2868,57 @@
         <v>18</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>190</v>
+        <v>139</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>204</v>
+        <v>148</v>
       </c>
       <c r="N22" s="6"/>
       <c r="O22" s="50" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="P22" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="55">
         <v>6</v>
       </c>
       <c r="R22" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S22" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T22" s="58" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="U22" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>141</v>
+      <c r="B23" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
       <c r="G23" s="20" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="H23" s="4">
         <v>21</v>
@@ -3335,57 +2927,57 @@
         <v>19</v>
       </c>
       <c r="J23" s="22" t="s">
-        <v>191</v>
+        <v>140</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L23" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M23" s="6"/>
       <c r="N23" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="O23" s="50" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="P23" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="55">
         <v>6</v>
       </c>
       <c r="R23" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S23" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T23" s="58" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="U23" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>142</v>
+      <c r="B24" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="19"/>
       <c r="G24" s="20" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
       <c r="H24" s="33">
         <v>22</v>
@@ -3394,57 +2986,57 @@
         <v>18</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>192</v>
+        <v>141</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M24" s="6" t="s">
-        <v>206</v>
+        <v>150</v>
       </c>
       <c r="N24" s="6"/>
       <c r="O24" s="50" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="55">
         <v>6</v>
       </c>
       <c r="R24" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S24" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T24" s="58" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="U24" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>143</v>
+      <c r="B25" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
       <c r="G25" s="20" t="s">
-        <v>170</v>
+        <v>119</v>
       </c>
       <c r="H25" s="4">
         <v>23</v>
@@ -3453,57 +3045,57 @@
         <v>19</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>193</v>
+        <v>142</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L25" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M25" s="6"/>
       <c r="N25" s="6" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="O25" s="50" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="55">
         <v>6</v>
       </c>
       <c r="R25" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S25" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T25" s="58" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="U25" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>144</v>
+      <c r="B26" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E26" s="18"/>
       <c r="F26" s="19"/>
       <c r="G26" s="20" t="s">
-        <v>171</v>
+        <v>120</v>
       </c>
       <c r="H26" s="33">
         <v>24</v>
@@ -3512,59 +3104,59 @@
         <v>19</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L26" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O26" s="50" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="P26" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="55">
         <v>6</v>
       </c>
       <c r="R26" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S26" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T26" s="58" t="s">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="U26" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="8" t="s">
-        <v>145</v>
+      <c r="B27" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>369</v>
+        <v>232</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="F27" s="19"/>
       <c r="G27" s="20" t="s">
-        <v>360</v>
+        <v>223</v>
       </c>
       <c r="H27" s="4">
         <v>25</v>
@@ -3573,57 +3165,57 @@
         <v>19</v>
       </c>
       <c r="J27" s="22" t="s">
-        <v>367</v>
+        <v>230</v>
       </c>
       <c r="K27" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="O27" s="50" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="P27" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q27" s="55">
         <v>6</v>
       </c>
       <c r="R27" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S27" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T27" s="58" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="U27" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>146</v>
+      <c r="B28" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E28" s="18"/>
       <c r="F28" s="19"/>
       <c r="G28" s="20" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="H28" s="33">
         <v>26</v>
@@ -3632,55 +3224,55 @@
         <v>19</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="50" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="P28" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q28" s="55" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="R28" s="56" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="S28" s="57" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="T28" s="67" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="U28" s="57" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="8" t="s">
-        <v>147</v>
+      <c r="B29" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="E29" s="18"/>
       <c r="F29" s="19"/>
       <c r="G29" s="20" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="H29" s="4">
         <v>27</v>
@@ -3689,54 +3281,52 @@
         <v>19</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>196</v>
+        <v>145</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L29" s="46" t="s">
-        <v>197</v>
+        <v>146</v>
       </c>
       <c r="M29" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>83</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="N29" s="6"/>
       <c r="O29" s="50" t="s">
-        <v>366</v>
+        <v>229</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="55">
         <v>6</v>
       </c>
       <c r="R29" s="56" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="S29" s="57" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="T29" s="58" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="U29" s="57" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>148</v>
+      <c r="B30" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
@@ -3748,7 +3338,7 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="22" t="s">
-        <v>361</v>
+        <v>224</v>
       </c>
       <c r="K30" s="5" t="s">
         <v>19</v>
@@ -3768,100 +3358,110 @@
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>149</v>
+      <c r="B31" s="34" t="s">
+        <v>236</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="19"/>
       <c r="G31" s="20" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="H31" s="33">
         <v>29</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="22" t="s">
-        <v>362</v>
+        <v>225</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>19</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>198</v>
+        <v>147</v>
       </c>
       <c r="M31" s="6"/>
       <c r="N31" s="6" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="O31" s="50" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q31" s="55">
         <v>6</v>
       </c>
       <c r="R31" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S31" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T31" s="58" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="U31" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="E32" s="18"/>
       <c r="F32" s="19"/>
       <c r="G32" s="24" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="H32" s="33">
         <v>30</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="L32" s="14"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="O32" s="51" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="P32" s="21" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="Q32" s="55">
         <v>6</v>
       </c>
       <c r="R32" s="56" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="S32" s="57" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="T32" s="58" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="U32" s="57" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -3957,21 +3557,6 @@
       <c r="U36" s="61"/>
     </row>
     <row r="37" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>275</v>
-      </c>
-      <c r="C37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D37" t="s">
-        <v>277</v>
-      </c>
-      <c r="E37" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" t="s">
-        <v>279</v>
-      </c>
       <c r="Q37" s="69"/>
       <c r="R37" s="69"/>
       <c r="S37" s="69"/>
@@ -3979,15 +3564,6 @@
       <c r="U37" s="69"/>
     </row>
     <row r="38" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>280</v>
-      </c>
-      <c r="C38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D38" t="s">
-        <v>282</v>
-      </c>
       <c r="Q38" s="69"/>
       <c r="R38" s="69"/>
       <c r="S38" s="69"/>
@@ -3995,71 +3571,20 @@
       <c r="U38" s="69"/>
     </row>
     <row r="39" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>283</v>
-      </c>
-      <c r="C39" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" t="s">
-        <v>286</v>
-      </c>
-      <c r="F39" t="s">
-        <v>197</v>
-      </c>
-      <c r="G39" t="s">
-        <v>198</v>
-      </c>
-      <c r="H39" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q39" s="69">
-        <f>COUNTIF(Q8:Q35,"Sí")</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="69" t="s">
-        <v>288</v>
-      </c>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
       <c r="S39" s="69"/>
       <c r="T39" s="69"/>
       <c r="U39" s="69"/>
     </row>
     <row r="40" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>289</v>
-      </c>
-      <c r="J40">
-        <f>COUNTIF(I8:I34,"Sí")</f>
-        <v>0</v>
-      </c>
-      <c r="K40" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q40" s="69">
-        <f>COUNTIF(Q8:Q35,"No")</f>
-        <v>0</v>
-      </c>
-      <c r="R40" s="69" t="s">
-        <v>291</v>
-      </c>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
       <c r="S40" s="69"/>
       <c r="T40" s="69"/>
       <c r="U40" s="69"/>
     </row>
     <row r="41" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>355</v>
-      </c>
-      <c r="J41">
-        <f>COUNTIF(I8:I34,"No")</f>
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>292</v>
-      </c>
       <c r="Q41" s="69"/>
       <c r="R41" s="69"/>
       <c r="S41" s="69"/>
@@ -4067,9 +3592,6 @@
       <c r="U41" s="69"/>
     </row>
     <row r="42" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>204</v>
-      </c>
       <c r="Q42" s="69"/>
       <c r="R42" s="69"/>
       <c r="S42" s="69"/>
@@ -4077,12 +3599,6 @@
       <c r="U42" s="69"/>
     </row>
     <row r="43" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>208</v>
-      </c>
-      <c r="E43" t="s">
-        <v>201</v>
-      </c>
       <c r="Q43" s="69"/>
       <c r="R43" s="69"/>
       <c r="S43" s="69"/>
@@ -4090,12 +3606,6 @@
       <c r="U43" s="69"/>
     </row>
     <row r="44" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>293</v>
-      </c>
-      <c r="E44" t="s">
-        <v>199</v>
-      </c>
       <c r="Q44" s="69"/>
       <c r="R44" s="69"/>
       <c r="S44" s="69"/>
@@ -4103,12 +3613,6 @@
       <c r="U44" s="69"/>
     </row>
     <row r="45" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" t="s">
-        <v>203</v>
-      </c>
       <c r="Q45" s="69"/>
       <c r="R45" s="69"/>
       <c r="S45" s="69"/>
@@ -4116,12 +3620,6 @@
       <c r="U45" s="69"/>
     </row>
     <row r="46" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>205</v>
-      </c>
-      <c r="E46" t="s">
-        <v>202</v>
-      </c>
       <c r="Q46" s="69"/>
       <c r="R46" s="69"/>
       <c r="S46" s="69"/>
@@ -4129,12 +3627,6 @@
       <c r="U46" s="69"/>
     </row>
     <row r="47" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>294</v>
-      </c>
-      <c r="E47" t="s">
-        <v>200</v>
-      </c>
       <c r="Q47" s="69"/>
       <c r="R47" s="69"/>
       <c r="S47" s="69"/>
@@ -4142,1048 +3634,742 @@
       <c r="U47" s="69"/>
     </row>
     <row r="48" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>295</v>
-      </c>
       <c r="Q48" s="69"/>
       <c r="R48" s="69"/>
       <c r="S48" s="69"/>
       <c r="T48" s="69"/>
       <c r="U48" s="69"/>
     </row>
-    <row r="49" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>206</v>
-      </c>
+    <row r="49" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q49" s="69"/>
       <c r="R49" s="69"/>
       <c r="S49" s="69"/>
       <c r="T49" s="69"/>
       <c r="U49" s="69"/>
     </row>
-    <row r="50" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>296</v>
-      </c>
+    <row r="50" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q50" s="69"/>
       <c r="R50" s="69"/>
       <c r="S50" s="69"/>
       <c r="T50" s="69"/>
       <c r="U50" s="69"/>
     </row>
-    <row r="51" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>297</v>
-      </c>
+    <row r="51" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q51" s="69"/>
       <c r="R51" s="69"/>
       <c r="S51" s="69"/>
       <c r="T51" s="69"/>
       <c r="U51" s="69"/>
     </row>
-    <row r="52" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>209</v>
-      </c>
+    <row r="52" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q52" s="69"/>
       <c r="R52" s="69"/>
       <c r="S52" s="69"/>
       <c r="T52" s="69"/>
       <c r="U52" s="69"/>
     </row>
-    <row r="53" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>298</v>
-      </c>
+    <row r="53" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q53" s="69"/>
       <c r="R53" s="69"/>
       <c r="S53" s="69"/>
       <c r="T53" s="69"/>
       <c r="U53" s="69"/>
     </row>
-    <row r="54" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q54" s="69"/>
       <c r="R54" s="69"/>
       <c r="S54" s="69"/>
       <c r="T54" s="69"/>
       <c r="U54" s="69"/>
     </row>
-    <row r="55" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>299</v>
-      </c>
+    <row r="55" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q55" s="69"/>
       <c r="R55" s="69"/>
       <c r="S55" s="69"/>
       <c r="T55" s="69"/>
       <c r="U55" s="69"/>
     </row>
-    <row r="56" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q56" s="69"/>
       <c r="R56" s="69"/>
       <c r="S56" s="69"/>
       <c r="T56" s="69"/>
       <c r="U56" s="69"/>
     </row>
-    <row r="57" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="C57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" t="s">
-        <v>86</v>
-      </c>
-      <c r="J57" t="s">
-        <v>87</v>
-      </c>
-      <c r="M57" t="s">
-        <v>88</v>
-      </c>
+    <row r="57" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q57" s="69"/>
       <c r="R57" s="69"/>
       <c r="S57" s="69"/>
       <c r="T57" s="69"/>
       <c r="U57" s="69"/>
     </row>
-    <row r="58" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q58" s="69"/>
       <c r="R58" s="69"/>
       <c r="S58" s="69"/>
       <c r="T58" s="69"/>
       <c r="U58" s="69"/>
     </row>
-    <row r="59" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>91</v>
-      </c>
+    <row r="59" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q59" s="69"/>
       <c r="R59" s="69"/>
       <c r="S59" s="69"/>
       <c r="T59" s="69"/>
       <c r="U59" s="69"/>
     </row>
-    <row r="60" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>92</v>
-      </c>
+    <row r="60" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q60" s="69"/>
       <c r="R60" s="69"/>
       <c r="S60" s="69"/>
       <c r="T60" s="69"/>
       <c r="U60" s="69"/>
     </row>
-    <row r="61" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>93</v>
-      </c>
+    <row r="61" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q61" s="69"/>
       <c r="R61" s="69"/>
       <c r="S61" s="69"/>
       <c r="T61" s="69"/>
       <c r="U61" s="69"/>
     </row>
-    <row r="62" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>94</v>
-      </c>
+    <row r="62" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q62" s="69"/>
       <c r="R62" s="69"/>
       <c r="S62" s="69"/>
       <c r="T62" s="69"/>
       <c r="U62" s="69"/>
     </row>
-    <row r="63" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
+    <row r="63" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q63" s="69"/>
       <c r="R63" s="69"/>
       <c r="S63" s="69"/>
       <c r="T63" s="69"/>
       <c r="U63" s="69"/>
     </row>
-    <row r="64" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
+    <row r="64" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q64" s="69"/>
       <c r="R64" s="69"/>
       <c r="S64" s="69"/>
       <c r="T64" s="69"/>
       <c r="U64" s="69"/>
     </row>
-    <row r="65" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>98</v>
-      </c>
+    <row r="65" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q65" s="69"/>
       <c r="R65" s="69"/>
       <c r="S65" s="69"/>
       <c r="T65" s="69"/>
       <c r="U65" s="69"/>
     </row>
-    <row r="66" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
+    <row r="66" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q66" s="69"/>
       <c r="R66" s="69"/>
       <c r="S66" s="69"/>
       <c r="T66" s="69"/>
       <c r="U66" s="69"/>
     </row>
-    <row r="67" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>99</v>
-      </c>
+    <row r="67" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q67" s="69"/>
       <c r="R67" s="69"/>
       <c r="S67" s="69"/>
       <c r="T67" s="69"/>
       <c r="U67" s="69"/>
     </row>
-    <row r="68" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>100</v>
-      </c>
+    <row r="68" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q68" s="69"/>
       <c r="R68" s="69"/>
       <c r="S68" s="69"/>
       <c r="T68" s="69"/>
       <c r="U68" s="69"/>
     </row>
-    <row r="69" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>101</v>
-      </c>
+    <row r="69" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q69" s="69"/>
       <c r="R69" s="69"/>
       <c r="S69" s="69"/>
       <c r="T69" s="69"/>
       <c r="U69" s="69"/>
     </row>
-    <row r="70" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>102</v>
-      </c>
+    <row r="70" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q70" s="69"/>
       <c r="R70" s="69"/>
       <c r="S70" s="69"/>
       <c r="T70" s="69"/>
       <c r="U70" s="69"/>
     </row>
-    <row r="71" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>103</v>
-      </c>
+    <row r="71" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q71" s="69"/>
       <c r="R71" s="69"/>
       <c r="S71" s="69"/>
       <c r="T71" s="69"/>
       <c r="U71" s="69"/>
     </row>
-    <row r="72" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>104</v>
-      </c>
+    <row r="72" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q72" s="69"/>
       <c r="R72" s="69"/>
       <c r="S72" s="69"/>
       <c r="T72" s="69"/>
       <c r="U72" s="69"/>
     </row>
-    <row r="73" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>105</v>
-      </c>
+    <row r="73" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q73" s="69"/>
       <c r="R73" s="69"/>
       <c r="S73" s="69"/>
       <c r="T73" s="69"/>
       <c r="U73" s="69"/>
     </row>
-    <row r="74" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>64</v>
-      </c>
+    <row r="74" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q74" s="69"/>
       <c r="R74" s="69"/>
       <c r="S74" s="69"/>
       <c r="T74" s="69"/>
       <c r="U74" s="69"/>
     </row>
-    <row r="75" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>65</v>
-      </c>
+    <row r="75" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q75" s="69"/>
       <c r="R75" s="69"/>
       <c r="S75" s="69"/>
       <c r="T75" s="69"/>
       <c r="U75" s="69"/>
     </row>
-    <row r="76" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>66</v>
-      </c>
+    <row r="76" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q76" s="69"/>
       <c r="R76" s="69"/>
       <c r="S76" s="69"/>
       <c r="T76" s="69"/>
       <c r="U76" s="69"/>
     </row>
-    <row r="77" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>67</v>
-      </c>
+    <row r="77" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q77" s="69"/>
       <c r="R77" s="69"/>
       <c r="S77" s="69"/>
       <c r="T77" s="69"/>
       <c r="U77" s="69"/>
     </row>
-    <row r="78" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>68</v>
-      </c>
+    <row r="78" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q78" s="69"/>
       <c r="R78" s="69"/>
       <c r="S78" s="69"/>
       <c r="T78" s="69"/>
       <c r="U78" s="69"/>
     </row>
-    <row r="79" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>69</v>
-      </c>
+    <row r="79" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q79" s="69"/>
       <c r="R79" s="69"/>
       <c r="S79" s="69"/>
       <c r="T79" s="69"/>
       <c r="U79" s="69"/>
     </row>
-    <row r="80" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>70</v>
-      </c>
+    <row r="80" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q80" s="69"/>
       <c r="R80" s="69"/>
       <c r="S80" s="69"/>
       <c r="T80" s="69"/>
       <c r="U80" s="69"/>
     </row>
-    <row r="81" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>71</v>
-      </c>
+    <row r="81" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q81" s="69"/>
       <c r="R81" s="69"/>
       <c r="S81" s="69"/>
       <c r="T81" s="69"/>
       <c r="U81" s="69"/>
     </row>
-    <row r="82" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>72</v>
-      </c>
+    <row r="82" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q82" s="69"/>
       <c r="R82" s="69"/>
       <c r="S82" s="69"/>
       <c r="T82" s="69"/>
       <c r="U82" s="69"/>
     </row>
-    <row r="83" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>73</v>
-      </c>
+    <row r="83" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q83" s="69"/>
       <c r="R83" s="69"/>
       <c r="S83" s="69"/>
       <c r="T83" s="69"/>
       <c r="U83" s="69"/>
     </row>
-    <row r="84" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>74</v>
-      </c>
+    <row r="84" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q84" s="69"/>
       <c r="R84" s="69"/>
       <c r="S84" s="69"/>
       <c r="T84" s="69"/>
       <c r="U84" s="69"/>
     </row>
-    <row r="85" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>75</v>
-      </c>
+    <row r="85" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q85" s="69"/>
       <c r="R85" s="69"/>
       <c r="S85" s="69"/>
       <c r="T85" s="69"/>
       <c r="U85" s="69"/>
     </row>
-    <row r="86" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>76</v>
-      </c>
+    <row r="86" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q86" s="69"/>
       <c r="R86" s="69"/>
       <c r="S86" s="69"/>
       <c r="T86" s="69"/>
       <c r="U86" s="69"/>
     </row>
-    <row r="87" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>77</v>
-      </c>
+    <row r="87" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q87" s="69"/>
       <c r="R87" s="69"/>
       <c r="S87" s="69"/>
       <c r="T87" s="69"/>
       <c r="U87" s="69"/>
     </row>
-    <row r="88" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>78</v>
-      </c>
+    <row r="88" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q88" s="69"/>
       <c r="R88" s="69"/>
       <c r="S88" s="69"/>
       <c r="T88" s="69"/>
       <c r="U88" s="69"/>
     </row>
-    <row r="89" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>79</v>
-      </c>
+    <row r="89" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q89" s="69"/>
       <c r="R89" s="69"/>
       <c r="S89" s="69"/>
       <c r="T89" s="69"/>
       <c r="U89" s="69"/>
     </row>
-    <row r="90" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>80</v>
-      </c>
+    <row r="90" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q90" s="69"/>
       <c r="R90" s="69"/>
       <c r="S90" s="69"/>
       <c r="T90" s="69"/>
       <c r="U90" s="69"/>
     </row>
-    <row r="91" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>81</v>
-      </c>
+    <row r="91" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q91" s="69"/>
       <c r="R91" s="69"/>
       <c r="S91" s="69"/>
       <c r="T91" s="69"/>
       <c r="U91" s="69"/>
     </row>
-    <row r="92" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>82</v>
-      </c>
+    <row r="92" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q92" s="69"/>
       <c r="R92" s="69"/>
       <c r="S92" s="69"/>
       <c r="T92" s="69"/>
       <c r="U92" s="69"/>
     </row>
-    <row r="93" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>83</v>
-      </c>
+    <row r="93" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q93" s="69"/>
       <c r="R93" s="69"/>
       <c r="S93" s="69"/>
       <c r="T93" s="69"/>
       <c r="U93" s="69"/>
     </row>
-    <row r="94" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>300</v>
-      </c>
+    <row r="94" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q94" s="69"/>
       <c r="R94" s="69"/>
       <c r="S94" s="69"/>
       <c r="T94" s="69"/>
       <c r="U94" s="69"/>
     </row>
-    <row r="95" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>301</v>
-      </c>
+    <row r="95" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q95" s="69"/>
       <c r="R95" s="69"/>
       <c r="S95" s="69"/>
       <c r="T95" s="69"/>
       <c r="U95" s="69"/>
     </row>
-    <row r="96" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>302</v>
-      </c>
+    <row r="96" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q96" s="69"/>
       <c r="R96" s="69"/>
       <c r="S96" s="69"/>
       <c r="T96" s="69"/>
       <c r="U96" s="69"/>
     </row>
-    <row r="97" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>303</v>
-      </c>
+    <row r="97" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q97" s="69"/>
       <c r="R97" s="69"/>
       <c r="S97" s="69"/>
       <c r="T97" s="69"/>
       <c r="U97" s="69"/>
     </row>
-    <row r="98" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>304</v>
-      </c>
+    <row r="98" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q98" s="69"/>
       <c r="R98" s="69"/>
       <c r="S98" s="69"/>
       <c r="T98" s="69"/>
       <c r="U98" s="69"/>
     </row>
-    <row r="99" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>305</v>
-      </c>
+    <row r="99" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q99" s="69"/>
       <c r="R99" s="69"/>
       <c r="S99" s="69"/>
       <c r="T99" s="69"/>
       <c r="U99" s="69"/>
     </row>
-    <row r="100" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>306</v>
-      </c>
+    <row r="100" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q100" s="69"/>
       <c r="R100" s="69"/>
       <c r="S100" s="69"/>
       <c r="T100" s="69"/>
       <c r="U100" s="69"/>
     </row>
-    <row r="101" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>307</v>
-      </c>
+    <row r="101" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q101" s="69"/>
       <c r="R101" s="69"/>
       <c r="S101" s="69"/>
       <c r="T101" s="69"/>
       <c r="U101" s="69"/>
     </row>
-    <row r="102" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>308</v>
-      </c>
+    <row r="102" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q102" s="69"/>
       <c r="R102" s="69"/>
       <c r="S102" s="69"/>
       <c r="T102" s="69"/>
       <c r="U102" s="69"/>
     </row>
-    <row r="103" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>309</v>
-      </c>
+    <row r="103" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q103" s="69"/>
       <c r="R103" s="69"/>
       <c r="S103" s="69"/>
       <c r="T103" s="69"/>
       <c r="U103" s="69"/>
     </row>
-    <row r="104" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>310</v>
-      </c>
+    <row r="104" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q104" s="69"/>
       <c r="R104" s="69"/>
       <c r="S104" s="69"/>
       <c r="T104" s="69"/>
       <c r="U104" s="69"/>
     </row>
-    <row r="105" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>311</v>
-      </c>
+    <row r="105" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q105" s="69"/>
       <c r="R105" s="69"/>
       <c r="S105" s="69"/>
       <c r="T105" s="69"/>
       <c r="U105" s="69"/>
     </row>
-    <row r="106" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>312</v>
-      </c>
+    <row r="106" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q106" s="69"/>
       <c r="R106" s="69"/>
       <c r="S106" s="69"/>
       <c r="T106" s="69"/>
       <c r="U106" s="69"/>
     </row>
-    <row r="107" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>313</v>
-      </c>
+    <row r="107" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q107" s="69"/>
       <c r="R107" s="69"/>
       <c r="S107" s="69"/>
       <c r="T107" s="69"/>
       <c r="U107" s="69"/>
     </row>
-    <row r="108" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>314</v>
-      </c>
+    <row r="108" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q108" s="69"/>
       <c r="R108" s="69"/>
       <c r="S108" s="69"/>
       <c r="T108" s="69"/>
       <c r="U108" s="69"/>
     </row>
-    <row r="109" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>315</v>
-      </c>
+    <row r="109" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q109" s="69"/>
       <c r="R109" s="69"/>
       <c r="S109" s="69"/>
       <c r="T109" s="69"/>
       <c r="U109" s="69"/>
     </row>
-    <row r="110" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>316</v>
-      </c>
+    <row r="110" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q110" s="69"/>
       <c r="R110" s="69"/>
       <c r="S110" s="69"/>
       <c r="T110" s="69"/>
       <c r="U110" s="69"/>
     </row>
-    <row r="111" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>317</v>
-      </c>
+    <row r="111" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q111" s="69"/>
       <c r="R111" s="69"/>
       <c r="S111" s="69"/>
       <c r="T111" s="69"/>
       <c r="U111" s="69"/>
     </row>
-    <row r="112" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>318</v>
-      </c>
+    <row r="112" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q112" s="69"/>
       <c r="R112" s="69"/>
       <c r="S112" s="69"/>
       <c r="T112" s="69"/>
       <c r="U112" s="69"/>
     </row>
-    <row r="113" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>319</v>
-      </c>
+    <row r="113" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q113" s="69"/>
       <c r="R113" s="69"/>
       <c r="S113" s="69"/>
       <c r="T113" s="69"/>
       <c r="U113" s="69"/>
     </row>
-    <row r="114" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>320</v>
-      </c>
+    <row r="114" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q114" s="69"/>
       <c r="R114" s="69"/>
       <c r="S114" s="69"/>
       <c r="T114" s="69"/>
       <c r="U114" s="69"/>
     </row>
-    <row r="115" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>321</v>
-      </c>
+    <row r="115" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q115" s="69"/>
       <c r="R115" s="69"/>
       <c r="S115" s="69"/>
       <c r="T115" s="69"/>
       <c r="U115" s="69"/>
     </row>
-    <row r="116" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>322</v>
-      </c>
+    <row r="116" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q116" s="69"/>
       <c r="R116" s="69"/>
       <c r="S116" s="69"/>
       <c r="T116" s="69"/>
       <c r="U116" s="69"/>
     </row>
-    <row r="117" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>323</v>
-      </c>
+    <row r="117" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q117" s="69"/>
       <c r="R117" s="69"/>
       <c r="S117" s="69"/>
       <c r="T117" s="69"/>
       <c r="U117" s="69"/>
     </row>
-    <row r="118" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>324</v>
-      </c>
+    <row r="118" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q118" s="69"/>
       <c r="R118" s="69"/>
       <c r="S118" s="69"/>
       <c r="T118" s="69"/>
       <c r="U118" s="69"/>
     </row>
-    <row r="119" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>325</v>
-      </c>
+    <row r="119" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q119" s="69"/>
       <c r="R119" s="69"/>
       <c r="S119" s="69"/>
       <c r="T119" s="69"/>
       <c r="U119" s="69"/>
     </row>
-    <row r="120" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>326</v>
-      </c>
+    <row r="120" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q120" s="69"/>
       <c r="R120" s="69"/>
       <c r="S120" s="69"/>
       <c r="T120" s="69"/>
       <c r="U120" s="69"/>
     </row>
-    <row r="121" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>327</v>
-      </c>
+    <row r="121" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q121" s="69"/>
       <c r="R121" s="69"/>
       <c r="S121" s="69"/>
       <c r="T121" s="69"/>
       <c r="U121" s="69"/>
     </row>
-    <row r="122" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>328</v>
-      </c>
+    <row r="122" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q122" s="69"/>
       <c r="R122" s="69"/>
       <c r="S122" s="69"/>
       <c r="T122" s="69"/>
       <c r="U122" s="69"/>
     </row>
-    <row r="123" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>329</v>
-      </c>
+    <row r="123" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q123" s="69"/>
       <c r="R123" s="69"/>
       <c r="S123" s="69"/>
       <c r="T123" s="69"/>
       <c r="U123" s="69"/>
     </row>
-    <row r="124" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>330</v>
-      </c>
+    <row r="124" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q124" s="69"/>
       <c r="R124" s="69"/>
       <c r="S124" s="69"/>
       <c r="T124" s="69"/>
       <c r="U124" s="69"/>
     </row>
-    <row r="125" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>331</v>
-      </c>
+    <row r="125" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q125" s="69"/>
       <c r="R125" s="69"/>
       <c r="S125" s="69"/>
       <c r="T125" s="69"/>
       <c r="U125" s="69"/>
     </row>
-    <row r="126" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>332</v>
-      </c>
+    <row r="126" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q126" s="69"/>
       <c r="R126" s="69"/>
       <c r="S126" s="69"/>
       <c r="T126" s="69"/>
       <c r="U126" s="69"/>
     </row>
-    <row r="127" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>333</v>
-      </c>
+    <row r="127" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q127" s="69"/>
       <c r="R127" s="69"/>
       <c r="S127" s="69"/>
       <c r="T127" s="69"/>
       <c r="U127" s="69"/>
     </row>
-    <row r="128" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>334</v>
-      </c>
+    <row r="128" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q128" s="69"/>
       <c r="R128" s="69"/>
       <c r="S128" s="69"/>
       <c r="T128" s="69"/>
       <c r="U128" s="69"/>
     </row>
-    <row r="129" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>335</v>
-      </c>
+    <row r="129" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q129" s="69"/>
       <c r="R129" s="69"/>
       <c r="S129" s="69"/>
       <c r="T129" s="69"/>
       <c r="U129" s="69"/>
     </row>
-    <row r="130" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>336</v>
-      </c>
+    <row r="130" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q130" s="69"/>
       <c r="R130" s="69"/>
       <c r="S130" s="69"/>
       <c r="T130" s="69"/>
       <c r="U130" s="69"/>
     </row>
-    <row r="131" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>337</v>
-      </c>
+    <row r="131" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q131" s="69"/>
       <c r="R131" s="69"/>
       <c r="S131" s="69"/>
       <c r="T131" s="69"/>
       <c r="U131" s="69"/>
     </row>
-    <row r="132" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>338</v>
-      </c>
+    <row r="132" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q132" s="69"/>
       <c r="R132" s="69"/>
       <c r="S132" s="69"/>
       <c r="T132" s="69"/>
       <c r="U132" s="69"/>
     </row>
-    <row r="133" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>339</v>
-      </c>
+    <row r="133" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q133" s="69"/>
       <c r="R133" s="69"/>
       <c r="S133" s="69"/>
       <c r="T133" s="69"/>
       <c r="U133" s="69"/>
     </row>
-    <row r="134" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>340</v>
-      </c>
+    <row r="134" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q134" s="69"/>
       <c r="R134" s="69"/>
       <c r="S134" s="69"/>
       <c r="T134" s="69"/>
       <c r="U134" s="69"/>
     </row>
-    <row r="135" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>341</v>
-      </c>
+    <row r="135" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q135" s="69"/>
       <c r="R135" s="69"/>
       <c r="S135" s="69"/>
       <c r="T135" s="69"/>
       <c r="U135" s="69"/>
     </row>
-    <row r="136" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>342</v>
-      </c>
+    <row r="136" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q136" s="69"/>
       <c r="R136" s="69"/>
       <c r="S136" s="69"/>
       <c r="T136" s="69"/>
       <c r="U136" s="69"/>
     </row>
-    <row r="137" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>343</v>
-      </c>
+    <row r="137" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q137" s="69"/>
       <c r="R137" s="69"/>
       <c r="S137" s="69"/>
       <c r="T137" s="69"/>
       <c r="U137" s="69"/>
     </row>
-    <row r="138" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>344</v>
-      </c>
+    <row r="138" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q138" s="69"/>
       <c r="R138" s="69"/>
       <c r="S138" s="69"/>
       <c r="T138" s="69"/>
       <c r="U138" s="69"/>
     </row>
-    <row r="139" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>345</v>
-      </c>
+    <row r="139" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q139" s="69"/>
       <c r="R139" s="69"/>
       <c r="S139" s="69"/>
       <c r="T139" s="69"/>
       <c r="U139" s="69"/>
     </row>
-    <row r="140" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>346</v>
-      </c>
+    <row r="140" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q140" s="69"/>
       <c r="R140" s="69"/>
       <c r="S140" s="69"/>
       <c r="T140" s="69"/>
       <c r="U140" s="69"/>
     </row>
-    <row r="141" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>347</v>
-      </c>
+    <row r="141" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q141" s="69"/>
       <c r="R141" s="69"/>
       <c r="S141" s="69"/>
       <c r="T141" s="69"/>
       <c r="U141" s="69"/>
     </row>
-    <row r="142" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>348</v>
-      </c>
+    <row r="142" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q142" s="69"/>
       <c r="R142" s="69"/>
       <c r="S142" s="69"/>
       <c r="T142" s="69"/>
       <c r="U142" s="69"/>
     </row>
-    <row r="143" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>349</v>
-      </c>
+    <row r="143" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q143" s="69"/>
       <c r="R143" s="69"/>
       <c r="S143" s="69"/>
       <c r="T143" s="69"/>
       <c r="U143" s="69"/>
     </row>
-    <row r="144" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>350</v>
-      </c>
+    <row r="144" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q144" s="69"/>
       <c r="R144" s="69"/>
       <c r="S144" s="69"/>
       <c r="T144" s="69"/>
       <c r="U144" s="69"/>
     </row>
-    <row r="145" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>351</v>
-      </c>
+    <row r="145" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q145" s="69"/>
       <c r="R145" s="69"/>
       <c r="S145" s="69"/>
       <c r="T145" s="69"/>
       <c r="U145" s="69"/>
     </row>
-    <row r="146" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>352</v>
-      </c>
+    <row r="146" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q146" s="69"/>
       <c r="R146" s="69"/>
       <c r="S146" s="69"/>
       <c r="T146" s="69"/>
       <c r="U146" s="69"/>
     </row>
-    <row r="147" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>353</v>
-      </c>
+    <row r="147" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q147" s="69"/>
       <c r="R147" s="69"/>
       <c r="S147" s="69"/>
       <c r="T147" s="69"/>
       <c r="U147" s="69"/>
     </row>
-    <row r="148" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>354</v>
-      </c>
+    <row r="148" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q148" s="69"/>
       <c r="R148" s="69"/>
       <c r="S148" s="69"/>
       <c r="T148" s="69"/>
       <c r="U148" s="69"/>
     </row>
-    <row r="149" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q149" s="69"/>
       <c r="R149" s="69"/>
       <c r="S149" s="69"/>
       <c r="T149" s="69"/>
       <c r="U149" s="69"/>
     </row>
-    <row r="150" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q150" s="69"/>
       <c r="R150" s="69"/>
       <c r="S150" s="69"/>
       <c r="T150" s="69"/>
       <c r="U150" s="69"/>
     </row>
-    <row r="151" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="17:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="Q151" s="69"/>
       <c r="R151" s="69"/>
       <c r="S151" s="69"/>
       <c r="T151" s="69"/>
       <c r="U151" s="69"/>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="17:21" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="161" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="162" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="163" hidden="1" x14ac:dyDescent="0.25"/>
@@ -5284,16 +4470,7 @@
     <row r="258" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:U2">
-    <filterColumn colId="12" showButton="0"/>
-  </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -5308,6 +4485,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M5:M32">
@@ -5403,7 +4586,7 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
@@ -5939,7 +5122,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -6059,7 +5242,7 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
@@ -6089,7 +5272,7 @@
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
@@ -6119,7 +5302,7 @@
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>

--- a/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lzambrano\Documents\GitHub\Matematicas\fuentes\contenidos\grado08\guion06\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11595"/>
   </bookViews>
@@ -13,12 +18,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja2!$A$1:$U$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="245">
   <si>
     <t>Asignatura</t>
   </si>
@@ -730,6 +735,30 @@
   </si>
   <si>
     <t>MA_08_06_CO</t>
+  </si>
+  <si>
+    <t>Autores</t>
+  </si>
+  <si>
+    <t>Andrea Sabogal</t>
+  </si>
+  <si>
+    <t>Johanna Vera</t>
+  </si>
+  <si>
+    <t>Julián Martínez</t>
+  </si>
+  <si>
+    <t>Joan Flórez</t>
+  </si>
+  <si>
+    <t>Camilo Cifuentes</t>
+  </si>
+  <si>
+    <t>Andrés Gómez</t>
+  </si>
+  <si>
+    <t>Clara Melo</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1229,9 +1258,57 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1253,53 +1330,8 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,7 +1393,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1396,7 +1428,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1605,11 +1637,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U259"/>
+  <dimension ref="A1:V259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1627,108 +1659,112 @@
     <col min="11" max="11" width="13.28515625" style="17" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="17" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="70" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" style="71" customWidth="1"/>
-    <col min="20" max="20" width="26" style="71" customWidth="1"/>
-    <col min="21" max="21" width="38.85546875" style="71" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="17"/>
+    <col min="15" max="15" width="37.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="28" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="70" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="71" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26" style="71" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="19.28515625" style="17" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:22" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="94" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="80" t="s">
+      <c r="F1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="80" t="s">
+      <c r="H1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="89" t="s">
+      <c r="K1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="87" t="e">
+      <c r="L1" s="80" t="e">
         <f>L1:N22Tipo de media</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="93" t="s">
+      <c r="M1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="93"/>
-      <c r="O1" s="72" t="s">
+      <c r="N1" s="86"/>
+      <c r="O1" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="72" t="s">
+      <c r="P1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="74" t="s">
+      <c r="Q1" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="78" t="s">
+      <c r="R1" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="74" t="s">
+      <c r="S1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="T1" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="74" t="s">
+      <c r="U1" s="90" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="88"/>
+      <c r="V1" s="15" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="29" t="s">
         <v>74</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="77"/>
-      <c r="U2" s="75"/>
-    </row>
-    <row r="3" spans="1:21" s="41" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O2" s="75"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="91"/>
+    </row>
+    <row r="3" spans="1:22" s="41" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1784,8 +1820,11 @@
       <c r="U3" s="52" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V3" s="96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="41" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
@@ -1843,8 +1882,11 @@
       <c r="U4" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V4" s="96" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1902,8 +1944,11 @@
       <c r="U5" s="61" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V5" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -1961,8 +2006,11 @@
       <c r="U6" s="65" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V6" s="37" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
@@ -2020,8 +2068,11 @@
       <c r="U7" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V7" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
@@ -2078,7 +2129,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2186,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -2193,8 +2244,11 @@
       <c r="U10" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="V10" s="17" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>14</v>
       </c>
@@ -2252,8 +2306,11 @@
       <c r="U11" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V11" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2311,8 +2368,11 @@
       <c r="U12" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V12" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
@@ -2370,8 +2430,11 @@
       <c r="U13" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V13" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -2428,7 +2491,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2486,8 +2549,11 @@
       <c r="U15" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V15" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -2547,8 +2613,11 @@
       <c r="U16" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V16" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>14</v>
       </c>
@@ -2606,8 +2675,11 @@
       <c r="U17" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V17" s="17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>14</v>
       </c>
@@ -2665,8 +2737,11 @@
       <c r="U18" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V18" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
@@ -2724,8 +2799,11 @@
       <c r="U19" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V19" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>14</v>
       </c>
@@ -2783,8 +2861,11 @@
       <c r="U20" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V20" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>14</v>
       </c>
@@ -2842,8 +2923,11 @@
       <c r="U21" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V21" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>14</v>
       </c>
@@ -2901,8 +2985,11 @@
       <c r="U22" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V22" s="17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>14</v>
       </c>
@@ -2960,8 +3047,11 @@
       <c r="U23" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V23" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>14</v>
       </c>
@@ -3019,8 +3109,11 @@
       <c r="U24" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V24" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>14</v>
       </c>
@@ -3078,8 +3171,11 @@
       <c r="U25" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V25" s="17" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>14</v>
       </c>
@@ -3137,8 +3233,11 @@
       <c r="U26" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V26" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>14</v>
       </c>
@@ -3198,8 +3297,11 @@
       <c r="U27" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V27" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>14</v>
       </c>
@@ -3256,7 +3358,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>14</v>
       </c>
@@ -3314,8 +3416,11 @@
       <c r="U29" s="57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V29" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>14</v>
       </c>
@@ -3354,7 +3459,7 @@
       <c r="T30" s="67"/>
       <c r="U30" s="57"/>
     </row>
-    <row r="31" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>14</v>
       </c>
@@ -3410,8 +3515,11 @@
       <c r="U31" s="57" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="V31" s="17" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>14</v>
       </c>
@@ -3462,6 +3570,9 @@
       </c>
       <c r="U32" s="57" t="s">
         <v>163</v>
+      </c>
+      <c r="V32" s="17" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
@@ -4471,6 +4582,12 @@
     <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4485,12 +4602,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M5:M32">

--- a/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
@@ -1258,15 +1258,39 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1308,30 +1332,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,9 +1639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V18" sqref="V18:V22"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,78 +1659,78 @@
     <col min="11" max="11" width="13.28515625" style="17" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="17" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="28" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="28" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="70" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="71" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" style="71" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="26" style="71" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="38.85546875" style="71" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="28" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="70" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="71" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="71" customWidth="1"/>
+    <col min="20" max="20" width="26" style="71" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" style="71" customWidth="1"/>
     <col min="22" max="22" width="19.28515625" style="17" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="87" t="s">
+      <c r="C1" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="86" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="80" t="s">
+      <c r="G1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="72" t="s">
+      <c r="H1" s="81" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="82" t="s">
+      <c r="K1" s="90" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="80" t="e">
+      <c r="L1" s="88" t="e">
         <f>L1:N22Tipo de media</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="86" t="s">
+      <c r="M1" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="86"/>
-      <c r="O1" s="74" t="s">
+      <c r="N1" s="94"/>
+      <c r="O1" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="74" t="s">
+      <c r="P1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="90" t="s">
+      <c r="Q1" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="94" t="s">
+      <c r="R1" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="90" t="s">
+      <c r="S1" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="92" t="s">
+      <c r="T1" s="77" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="90" t="s">
+      <c r="U1" s="75" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="15" t="s">
@@ -1738,31 +1738,31 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="81"/>
+      <c r="A2" s="87"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="89"/>
       <c r="M2" s="29" t="s">
         <v>74</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="75"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="91"/>
-      <c r="T2" s="93"/>
-      <c r="U2" s="91"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="76"/>
+      <c r="R2" s="80"/>
+      <c r="S2" s="76"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="76"/>
     </row>
     <row r="3" spans="1:22" s="41" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1820,7 +1820,7 @@
       <c r="U3" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="V3" s="96" t="s">
+      <c r="V3" s="72" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="U4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="96" t="s">
+      <c r="V4" s="72" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4582,12 +4582,6 @@
     <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4602,6 +4596,12 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M5:M32">

--- a/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
+++ b/fuentes/contenidos/grado08/guion06/Escaleta MA_08_06_CO.xlsx
@@ -1258,80 +1258,80 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1639,9 +1639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N1:V1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V18" sqref="V18:V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,78 +1659,78 @@
     <col min="11" max="11" width="13.28515625" style="17" customWidth="1"/>
     <col min="12" max="12" width="17.42578125" style="17" customWidth="1"/>
     <col min="13" max="14" width="9.28515625" style="17" customWidth="1"/>
-    <col min="15" max="15" width="37.85546875" style="28" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="28" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" style="70" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="71" customWidth="1"/>
-    <col min="19" max="19" width="27.5703125" style="71" customWidth="1"/>
-    <col min="20" max="20" width="26" style="71" customWidth="1"/>
-    <col min="21" max="21" width="38.85546875" style="71" customWidth="1"/>
+    <col min="15" max="15" width="37.85546875" style="28" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="28" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" style="70" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="71" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="27.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="26" style="71" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="38.85546875" style="71" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="19.28515625" style="17" customWidth="1"/>
     <col min="23" max="16384" width="11.42578125" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="15" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="95" t="s">
+      <c r="C1" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="86" t="s">
+      <c r="D1" s="78" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="88" t="s">
+      <c r="G1" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="J1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="L1" s="88" t="e">
+      <c r="L1" s="80" t="e">
         <f>L1:N22Tipo de media</f>
         <v>#NAME?</v>
       </c>
-      <c r="M1" s="94" t="s">
+      <c r="M1" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="N1" s="94"/>
-      <c r="O1" s="73" t="s">
+      <c r="N1" s="86"/>
+      <c r="O1" s="74" t="s">
         <v>83</v>
       </c>
-      <c r="P1" s="73" t="s">
+      <c r="P1" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="Q1" s="75" t="s">
+      <c r="Q1" s="90" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="R1" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="75" t="s">
+      <c r="S1" s="90" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="77" t="s">
+      <c r="T1" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="75" t="s">
+      <c r="U1" s="90" t="s">
         <v>73</v>
       </c>
       <c r="V1" s="15" t="s">
@@ -1738,31 +1738,31 @@
       </c>
     </row>
     <row r="2" spans="1:22" s="15" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="93"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="89"/>
+      <c r="A2" s="79"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="81"/>
       <c r="M2" s="29" t="s">
         <v>74</v>
       </c>
       <c r="N2" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="76"/>
-      <c r="R2" s="80"/>
-      <c r="S2" s="76"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="76"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="91"/>
+      <c r="T2" s="93"/>
+      <c r="U2" s="91"/>
     </row>
     <row r="3" spans="1:22" s="41" customFormat="1" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1820,7 +1820,7 @@
       <c r="U3" s="52" t="s">
         <v>235</v>
       </c>
-      <c r="V3" s="72" t="s">
+      <c r="V3" s="96" t="s">
         <v>240</v>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       <c r="U4" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="V4" s="96" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4582,6 +4582,12 @@
     <row r="259" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="O1:O2"/>
@@ -4596,12 +4602,6 @@
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="Q1:Q2"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3 M5:M32">
